--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-63453.39110408158</v>
+        <v>-66154.60775553872</v>
       </c>
     </row>
     <row r="7">
@@ -659,13 +659,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,7 +674,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>59.8012719186828</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>81.10851687400105</v>
       </c>
       <c r="C3" t="n">
-        <v>145.5480223336449</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>112.2280451462094</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>75.02623601535653</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>111.4075712450467</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>383.687727815432</v>
+        <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899765</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660374</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>41.30666581573919</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>383.6877278154324</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>24.43279290629534</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713678</v>
       </c>
       <c r="S6" t="n">
         <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238325</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>143.5293110515822</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>135.4739678040385</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>110.0149287600364</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>330.622376632041</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>180.2158708563821</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>76.63139440902452</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>49.57372789032991</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,10 +1385,10 @@
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>240.1044458298915</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184557</v>
+        <v>24.1466220418456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615212</v>
+        <v>98.88510599615213</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>204.5900419427774</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530791</v>
+        <v>10.48847705530792</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>9.664448543289408</v>
+        <v>105.5089280640925</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.8133067990524</v>
+        <v>79.81330679905241</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1582,7 +1582,7 @@
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174126</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>75.00788511618059</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>38.61213096654686</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>35.41770597126485</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833852</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>203.1332405899839</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>141.5017810206659</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141575</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.2585798692291</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428165</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>142.1343012721628</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>20.88994825141549</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>146.1850499531017</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.95497330698008</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>60.64713141731143</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4141,10 +4141,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833772</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>161.0175085755505</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.3840804899464</v>
+        <v>367.789405660333</v>
       </c>
       <c r="C2" t="n">
-        <v>307.3840804899464</v>
+        <v>101.4117490931551</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3840804899464</v>
+        <v>101.4117490931551</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>101.4117490931551</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>94.46624834395162</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>81.50243557050716</v>
       </c>
       <c r="H2" t="n">
         <v>21.09711040012049</v>
@@ -4331,10 +4331,10 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030606</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>634.167062227511</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388466</v>
+        <v>634.167062227511</v>
       </c>
       <c r="Y2" t="n">
-        <v>573.7617370571243</v>
+        <v>634.167062227511</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>415.1340346407655</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="C3" t="n">
-        <v>268.1158302633464</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="D3" t="n">
-        <v>268.1158302633464</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1158302633464</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
         <v>21.09711040012049</v>
@@ -4407,10 +4407,10 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
         <v>338.874007230231</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374622</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U3" t="n">
-        <v>858.0464416374622</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="V3" t="n">
-        <v>622.8943334057194</v>
+        <v>652.7312295849117</v>
       </c>
       <c r="W3" t="n">
-        <v>622.8943334057194</v>
+        <v>398.4938728567101</v>
       </c>
       <c r="X3" t="n">
-        <v>622.8943334057194</v>
+        <v>398.4938728567101</v>
       </c>
       <c r="Y3" t="n">
-        <v>415.1340346407655</v>
+        <v>398.4938728567101</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>466.0167908927597</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>466.0167908927597</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>315.900151480424</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
         <v>21.09711040012049</v>
@@ -4489,19 +4489,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>941.4938582421767</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>941.4938582421767</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="U4" t="n">
-        <v>941.4938582421767</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="V4" t="n">
-        <v>686.8093700362898</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="W4" t="n">
-        <v>686.8093700362898</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="X4" t="n">
-        <v>686.8093700362898</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y4" t="n">
-        <v>466.0167908927597</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1493.027006397345</v>
+        <v>50.1849543055188</v>
       </c>
       <c r="C5" t="n">
-        <v>1124.064489456933</v>
+        <v>50.1849543055188</v>
       </c>
       <c r="D5" t="n">
-        <v>1124.064489456933</v>
+        <v>50.1849543055188</v>
       </c>
       <c r="E5" t="n">
-        <v>738.2762368586891</v>
+        <v>50.1849543055188</v>
       </c>
       <c r="F5" t="n">
-        <v>731.3307361094857</v>
+        <v>43.23945355631533</v>
       </c>
       <c r="G5" t="n">
-        <v>343.7673746797563</v>
+        <v>30.69501822523459</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523459</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523459</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275175</v>
+        <v>93.76641159275198</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245569</v>
+        <v>239.0325989245572</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825646</v>
+        <v>456.1499114825647</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748878</v>
+        <v>729.4041931748882</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202382</v>
+        <v>1011.693823202383</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798416</v>
+        <v>1264.916654798417</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189414</v>
+        <v>1446.535482189415</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261728</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261728</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261728</v>
+        <v>1389.996673518257</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261728</v>
+        <v>1177.398442107332</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261728</v>
+        <v>923.7469742438502</v>
       </c>
       <c r="V5" t="n">
-        <v>1534.750911261728</v>
+        <v>923.7469742438502</v>
       </c>
       <c r="W5" t="n">
-        <v>1493.027006397345</v>
+        <v>923.7469742438502</v>
       </c>
       <c r="X5" t="n">
-        <v>1493.027006397345</v>
+        <v>550.2812159827704</v>
       </c>
       <c r="Y5" t="n">
-        <v>1493.027006397345</v>
+        <v>162.7178545530407</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>672.7719490164832</v>
+        <v>179.6294278864859</v>
       </c>
       <c r="C6" t="n">
-        <v>498.3189197353562</v>
+        <v>179.6294278864859</v>
       </c>
       <c r="D6" t="n">
-        <v>498.3189197353562</v>
+        <v>30.69501822523459</v>
       </c>
       <c r="E6" t="n">
-        <v>339.0814647299007</v>
+        <v>30.69501822523459</v>
       </c>
       <c r="F6" t="n">
-        <v>192.5469067567857</v>
+        <v>30.69501822523459</v>
       </c>
       <c r="G6" t="n">
-        <v>55.37460701947228</v>
+        <v>30.69501822523459</v>
       </c>
       <c r="H6" t="n">
-        <v>55.37460701947228</v>
+        <v>30.69501822523459</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523459</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563447</v>
+        <v>49.44206107563456</v>
       </c>
       <c r="K6" t="n">
-        <v>159.6385680169452</v>
+        <v>159.6385680169454</v>
       </c>
       <c r="L6" t="n">
-        <v>362.6575050029072</v>
+        <v>539.4894185542234</v>
       </c>
       <c r="M6" t="n">
-        <v>608.9812656736535</v>
+        <v>785.81317922497</v>
       </c>
       <c r="N6" t="n">
-        <v>876.2331282458763</v>
+        <v>1053.065041797193</v>
       </c>
       <c r="O6" t="n">
-        <v>1098.496575411395</v>
+        <v>1275.328488962712</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948673</v>
+        <v>1434.381434161401</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261728</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261728</v>
+        <v>1530.346686757978</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.282497655823</v>
+        <v>1385.878273152073</v>
       </c>
       <c r="T6" t="n">
-        <v>1390.282497655823</v>
+        <v>1189.973630703757</v>
       </c>
       <c r="U6" t="n">
-        <v>1162.161413976427</v>
+        <v>1189.973630703757</v>
       </c>
       <c r="V6" t="n">
-        <v>927.0093057446848</v>
+        <v>954.8215224720147</v>
       </c>
       <c r="W6" t="n">
-        <v>672.7719490164832</v>
+        <v>700.5841657438132</v>
       </c>
       <c r="X6" t="n">
-        <v>672.7719490164832</v>
+        <v>555.6050636715079</v>
       </c>
       <c r="Y6" t="n">
-        <v>672.7719490164832</v>
+        <v>347.8447649065539</v>
       </c>
     </row>
     <row r="7">
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.7573918198449</v>
+        <v>349.7478405654772</v>
       </c>
       <c r="C7" t="n">
-        <v>141.821208891938</v>
+        <v>180.8116576375703</v>
       </c>
       <c r="D7" t="n">
-        <v>141.821208891938</v>
+        <v>30.69501822523459</v>
       </c>
       <c r="E7" t="n">
-        <v>141.821208891938</v>
+        <v>30.69501822523459</v>
       </c>
       <c r="F7" t="n">
-        <v>141.821208891938</v>
+        <v>30.69501822523459</v>
       </c>
       <c r="G7" t="n">
-        <v>141.821208891938</v>
+        <v>30.69501822523459</v>
       </c>
       <c r="H7" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523459</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523459</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523459</v>
       </c>
       <c r="K7" t="n">
         <v>157.432275622327</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830395</v>
+        <v>375.1387655830396</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388161</v>
+        <v>615.0688576388163</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974836</v>
+        <v>854.7285647974838</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891673</v>
+        <v>1060.076798891674</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934023</v>
+        <v>1212.267005934024</v>
       </c>
       <c r="Q7" t="n">
         <v>1234.200536495186</v>
@@ -4750,25 +4750,25 @@
         <v>1234.200536495186</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495186</v>
+        <v>1030.691890529576</v>
       </c>
       <c r="T7" t="n">
-        <v>1009.53527837173</v>
+        <v>1030.691890529576</v>
       </c>
       <c r="U7" t="n">
-        <v>720.395407548102</v>
+        <v>1030.691890529576</v>
       </c>
       <c r="V7" t="n">
-        <v>720.395407548102</v>
+        <v>776.0074023236888</v>
       </c>
       <c r="W7" t="n">
-        <v>720.395407548102</v>
+        <v>486.5902322867282</v>
       </c>
       <c r="X7" t="n">
-        <v>492.4058566500846</v>
+        <v>486.5902322867282</v>
       </c>
       <c r="Y7" t="n">
-        <v>492.4058566500846</v>
+        <v>486.5902322867282</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>827.4904500197511</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="C8" t="n">
-        <v>458.5279330793393</v>
+        <v>1399.987221986177</v>
       </c>
       <c r="D8" t="n">
-        <v>458.5279330793393</v>
+        <v>1041.721523379427</v>
       </c>
       <c r="E8" t="n">
-        <v>458.5279330793393</v>
+        <v>655.9332707811825</v>
       </c>
       <c r="F8" t="n">
-        <v>451.5824323301359</v>
+        <v>648.987770031979</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>233.2830197562679</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>1977.695380320764</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X8" t="n">
-        <v>1604.229622059685</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="Y8" t="n">
-        <v>1214.090290083873</v>
+        <v>1768.949738926589</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
@@ -4881,22 +4881,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>614.3137812221298</v>
+        <v>475.205037342667</v>
       </c>
       <c r="C10" t="n">
-        <v>445.3775982942229</v>
+        <v>475.205037342667</v>
       </c>
       <c r="D10" t="n">
-        <v>367.9721493962184</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962184</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1586.371647458003</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1389.742899617864</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1166.764418812599</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="V10" t="n">
-        <v>1244.744376093917</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="W10" t="n">
-        <v>1244.744376093917</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="X10" t="n">
-        <v>1016.7548251959</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="Y10" t="n">
-        <v>795.9622460523696</v>
+        <v>656.8535021729067</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1922.466994964848</v>
+        <v>1872.090169197693</v>
       </c>
       <c r="C11" t="n">
-        <v>1553.504478024436</v>
+        <v>1503.127652257282</v>
       </c>
       <c r="D11" t="n">
-        <v>1195.238779417686</v>
+        <v>1144.861953650531</v>
       </c>
       <c r="E11" t="n">
-        <v>809.4505268194416</v>
+        <v>759.0737010522871</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194418</v>
+        <v>759.073701052287</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>344.4579364934324</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J11" t="n">
         <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656976</v>
+        <v>695.1615405656962</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625331</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484043</v>
+        <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535297</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479996</v>
+        <v>3493.127967479994</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464061</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796037</v>
+        <v>3876.883295796036</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345378</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926742</v>
+        <v>3573.020743926741</v>
       </c>
       <c r="U11" t="n">
-        <v>3366.364135903735</v>
+        <v>3319.52680204827</v>
       </c>
       <c r="V11" t="n">
-        <v>3035.301248560164</v>
+        <v>2988.463914704699</v>
       </c>
       <c r="W11" t="n">
-        <v>2682.53259329005</v>
+        <v>2635.695259434585</v>
       </c>
       <c r="X11" t="n">
-        <v>2309.06683502897</v>
+        <v>2262.229501173505</v>
       </c>
       <c r="Y11" t="n">
-        <v>2309.06683502897</v>
+        <v>1872.090169197693</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
         <v>312.3928428722697</v>
@@ -5112,34 +5112,34 @@
         <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046655</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626171</v>
+        <v>612.5381326449926</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019145</v>
+        <v>1120.494698601521</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720355</v>
+        <v>1656.30400830273</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2000.207762193668</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>693.9966129222149</v>
+        <v>184.1123407281355</v>
       </c>
       <c r="C13" t="n">
-        <v>693.9966129222149</v>
+        <v>184.1123407281355</v>
       </c>
       <c r="D13" t="n">
-        <v>684.2345436865692</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="E13" t="n">
-        <v>536.3214501041761</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="G13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758646</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648141</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344803</v>
+        <v>710.5788654344808</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
@@ -5227,22 +5227,22 @@
         <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.73628689332</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1647.73628689332</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1393.051798687433</v>
+        <v>1103.960105636883</v>
       </c>
       <c r="W13" t="n">
-        <v>1103.634628650472</v>
+        <v>814.5429355999227</v>
       </c>
       <c r="X13" t="n">
-        <v>875.6450777524547</v>
+        <v>586.5533847019053</v>
       </c>
       <c r="Y13" t="n">
-        <v>875.6450777524547</v>
+        <v>365.7608055583752</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,16 +5309,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1804.131916132773</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O15" t="n">
-        <v>2356.04164637206</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P15" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,10 +5549,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591808</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048571</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133955</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310024</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,7 +5674,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327629</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C22" t="n">
-        <v>594.817955904856</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925203</v>
+        <v>194.800778399829</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101272</v>
+        <v>194.800778399829</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>194.800778399829</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.18473370455</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806533</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630027</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="23">
@@ -5972,34 +5972,34 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,25 +6066,25 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.6442739835327</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835327</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.527634571197</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.614540988804</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797186</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6157,10 +6157,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2022.176527098168</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1029.292738813772</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327641</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
         <v>175.9033664000583</v>
@@ -6379,7 +6379,7 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6388,7 +6388,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630038</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.717886400351</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>705.9324428257313</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257313</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6622,7 +6622,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>705.9324428257313</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,25 +6777,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>429.5088224239596</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>175.8744207939072</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>671.2000270096659</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297709</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297709</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,7 +7096,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797745</v>
@@ -7105,10 +7105,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,19 +7251,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>924.8344286397182</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135295</v>
+        <v>695.5020655703107</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856226</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>550.6376870732869</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630044</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925215</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>296.7882229101285</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7637,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,16 +7725,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.6725264685181</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406112</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
         <v>93.81666304797187</v>
@@ -7807,49 +7807,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987578</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636986</v>
+        <v>34.43939438636977</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>8.609690055161309</v>
+        <v>187.2277845514399</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>223.0281872106963</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>44.41009271441781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>211.0329012241562</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>49.8730575094833</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>46.36896051690954</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>138.9510244749229</v>
+        <v>43.10654495411985</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927374</v>
+        <v>90.25352389927376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185671</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>211.5151132204104</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>110.0033420516655</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>110.0033420516664</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393032</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864954</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>83.05123379926026</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>25.7450400779619</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.3260734828657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.3554390986496</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>110.0033420516652</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>144.6341900408534</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25363,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>71.22040037418653</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>104.8770068749572</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>12.04875628922494</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>104.8770068749574</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>998754.5832106323</v>
+        <v>998754.5832106321</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1099407.013021706</v>
+        <v>1099407.013021705</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1099407.013021706</v>
+        <v>1099407.013021705</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1099407.013021706</v>
+        <v>1099407.013021705</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1099407.013021706</v>
+        <v>1099407.013021705</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1099407.013021706</v>
+        <v>1099407.013021705</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1099407.013021706</v>
+        <v>1099407.013021705</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1099407.013021706</v>
+        <v>1099407.013021705</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1099407.013021706</v>
+        <v>1099407.013021705</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1099407.013021706</v>
+        <v>1099407.013021705</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>328416.7079457133</v>
+      </c>
+      <c r="C2" t="n">
+        <v>328416.7079457136</v>
+      </c>
+      <c r="D2" t="n">
         <v>328416.7079457134</v>
       </c>
-      <c r="C2" t="n">
-        <v>328416.7079457135</v>
-      </c>
-      <c r="D2" t="n">
-        <v>328416.7079457135</v>
-      </c>
       <c r="E2" t="n">
-        <v>293035.6977097585</v>
+        <v>293035.6977097586</v>
       </c>
       <c r="F2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="G2" t="n">
         <v>322858.6398760023</v>
       </c>
-      <c r="G2" t="n">
-        <v>322858.6398760026</v>
-      </c>
       <c r="H2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="I2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="I2" t="n">
-        <v>322858.6398760023</v>
-      </c>
       <c r="J2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="K2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="K2" t="n">
-        <v>322858.6398760023</v>
       </c>
       <c r="L2" t="n">
         <v>322858.6398760023</v>
       </c>
       <c r="M2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="N2" t="n">
         <v>322858.6398760023</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>322858.6398760023</v>
-      </c>
-      <c r="P2" t="n">
-        <v>322858.6398760024</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657081</v>
+        <v>132804.2190657085</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929366</v>
+        <v>265413.0723929363</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545774</v>
+        <v>313577.157354577</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704289</v>
+        <v>189308.2687704291</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417448</v>
+        <v>30877.42926417456</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049543</v>
+        <v>65018.34502049534</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.4037127308</v>
+        <v>81897.40371273075</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320236</v>
+        <v>49839.57413202366</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26433,28 +26433,28 @@
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678127</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="N4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="N4" t="n">
-        <v>10557.08828678123</v>
-      </c>
       <c r="O4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667501</v>
+        <v>72593.65038667504</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738567</v>
+        <v>85137.48506738566</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-665051.7418246079</v>
+        <v>-665051.7418246082</v>
       </c>
       <c r="C6" t="n">
-        <v>-91492.95900143425</v>
+        <v>-91492.95900143454</v>
       </c>
       <c r="D6" t="n">
-        <v>-169068.6840094091</v>
+        <v>-169068.684009409</v>
       </c>
       <c r="E6" t="n">
-        <v>-116130.6144393392</v>
+        <v>-116351.7457533135</v>
       </c>
       <c r="F6" t="n">
-        <v>21870.75299488512</v>
+        <v>21836.01506944925</v>
       </c>
       <c r="G6" t="n">
-        <v>211179.0217653142</v>
+        <v>211144.2838398782</v>
       </c>
       <c r="H6" t="n">
-        <v>211179.0217653141</v>
+        <v>211144.2838398782</v>
       </c>
       <c r="I6" t="n">
-        <v>211179.0217653139</v>
+        <v>211144.2838398783</v>
       </c>
       <c r="J6" t="n">
-        <v>142179.8673461999</v>
+        <v>142145.1294207643</v>
       </c>
       <c r="K6" t="n">
-        <v>180301.5925011395</v>
+        <v>180266.8545757038</v>
       </c>
       <c r="L6" t="n">
-        <v>146160.6767448185</v>
+        <v>146125.9388193829</v>
       </c>
       <c r="M6" t="n">
-        <v>129281.6180525831</v>
+        <v>129246.8801271477</v>
       </c>
       <c r="N6" t="n">
-        <v>161339.4476332904</v>
+        <v>161304.7097078546</v>
       </c>
       <c r="O6" t="n">
-        <v>211179.021765314</v>
+        <v>211144.2838398783</v>
       </c>
       <c r="P6" t="n">
-        <v>211179.0217653141</v>
+        <v>211144.2838398783</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695756</v>
+        <v>717.331951169576</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1202.24123721495</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.687727815432</v>
+        <v>383.6877278154324</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490092</v>
+        <v>969.2208239490089</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000974</v>
+        <v>103.2769374000977</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479635</v>
+        <v>216.7329409479632</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974113</v>
+        <v>268.1763450974109</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267234</v>
+        <v>165.7342631267236</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139259</v>
+        <v>119.9738478139262</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846068</v>
+        <v>256.8971042846065</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489703</v>
+        <v>328.6359918489701</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.4874641506394</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139259</v>
+        <v>119.9738478139262</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846068</v>
+        <v>256.8971042846065</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489703</v>
+        <v>328.6359918489701</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.4874641506394</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139259</v>
+        <v>119.9738478139262</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846068</v>
+        <v>256.8971042846065</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489703</v>
+        <v>328.6359918489701</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.4874641506394</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>254.3923607105852</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.6689735381485</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>85.42466677586629</v>
       </c>
       <c r="C3" t="n">
-        <v>27.16047665467087</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,7 +27473,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>43.9218040015056</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27518,13 +27518,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>92.49111909738433</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>177.1114073084715</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>271.3262704184339</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>28.73126316233788</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899765</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863678</v>
+        <v>99.30025118863674</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660375</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>307.9343029016738</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>2.550210840621219</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
         <v>97.33388804333225</v>
       </c>
       <c r="I6" t="n">
-        <v>11.84067186322192</v>
+        <v>36.27346476951723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713735</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238325</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>62.24367415189525</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>44.35801237789883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>40.71141344832377</v>
+        <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
         <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>1.90523611264345</v>
+        <v>1.905236112643408</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>119.1307056315183</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059546</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>80.925326140913</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>120.8026817060232</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>71.98407860918783</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>51.98384452924373</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>4.713147794991619e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.56319401867222e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28995,10 +28995,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>-9.83188879184554e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30457,13 +30457,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365126</v>
+        <v>2.883746537365127</v>
       </c>
       <c r="H5" t="n">
-        <v>29.5331692257906</v>
+        <v>29.53316922579062</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817691</v>
+        <v>111.1756383817692</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756936</v>
+        <v>244.7543826756937</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023594</v>
+        <v>366.8233736023596</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952475</v>
+        <v>455.0768316952477</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791145</v>
+        <v>506.3606591791148</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284032</v>
+        <v>514.5541040284035</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974787</v>
+        <v>485.878849397479</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562771</v>
+        <v>414.6863567562773</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868884</v>
+        <v>311.4121838868886</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277623</v>
+        <v>181.1461434277624</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020787</v>
+        <v>65.71337422020791</v>
       </c>
       <c r="T5" t="n">
         <v>12.62360046731585</v>
       </c>
       <c r="U5" t="n">
-        <v>0.23069972298921</v>
+        <v>0.2306997229892102</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270408</v>
+        <v>1.542940423270409</v>
       </c>
       <c r="H6" t="n">
         <v>14.90155619316421</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189782</v>
+        <v>53.12316808189785</v>
       </c>
       <c r="J6" t="n">
         <v>145.7740335862626</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453799</v>
+        <v>249.15104194538</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438665</v>
+        <v>335.0143230438666</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874187</v>
+        <v>390.9459133874188</v>
       </c>
       <c r="N6" t="n">
-        <v>401.293088418912</v>
+        <v>401.2930884189121</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348676</v>
+        <v>367.1047769348678</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190659</v>
+        <v>294.6339480190661</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.954991573956</v>
+        <v>196.9549915739561</v>
       </c>
       <c r="R6" t="n">
-        <v>95.7976518939294</v>
+        <v>95.79765189392946</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399199</v>
+        <v>28.659441633992</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989055</v>
+        <v>6.219132670989057</v>
       </c>
       <c r="U6" t="n">
         <v>0.1015092383730532</v>
@@ -31437,46 +31437,46 @@
         <v>1.293549420141858</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907943</v>
+        <v>11.50083029907944</v>
       </c>
       <c r="I7" t="n">
-        <v>38.9005589257206</v>
+        <v>38.90055892572062</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402932</v>
+        <v>91.45394400402937</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401176</v>
+        <v>150.2869235401177</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545449</v>
+        <v>192.315520154545</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773277</v>
+        <v>202.7697513773278</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022537</v>
+        <v>197.9483399022538</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669601</v>
+        <v>182.8373307669602</v>
       </c>
       <c r="P7" t="n">
         <v>156.4489225960661</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266059</v>
+        <v>108.317124626606</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565115</v>
+        <v>58.16268574565117</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101764</v>
+        <v>22.54303853101765</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060663</v>
+        <v>5.526983886060665</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864686</v>
+        <v>0.07055724109864689</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869143</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639238</v>
+        <v>49.49729877639237</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203916</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975126</v>
+        <v>614.7923367975125</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544655</v>
+        <v>762.7042574544654</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954559</v>
+        <v>848.6554437954558</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180167</v>
+        <v>862.3875761180165</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956803</v>
+        <v>814.3281336956802</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620358</v>
+        <v>695.0102219620356</v>
       </c>
       <c r="Q11" t="n">
         <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.5991401696628</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
         <v>0.3866504481495314</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837095</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469209</v>
+        <v>89.03390294469207</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>417.574675759838</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747748</v>
+        <v>561.4806834747747</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821478</v>
+        <v>655.2214742821477</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340504</v>
+        <v>672.5632370340503</v>
       </c>
       <c r="O12" t="n">
-        <v>225.1169475382831</v>
+        <v>489.9737736272093</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383445</v>
+        <v>493.8035753383444</v>
       </c>
       <c r="Q12" t="n">
         <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627652</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798454</v>
+        <v>65.19695102798453</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085355</v>
@@ -31926,28 +31926,28 @@
         <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770063</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531028</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
         <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493064</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811709</v>
+        <v>97.48008457811707</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493539</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377483</v>
+        <v>9.263170188377481</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32075,7 +32075,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>484.1423712692491</v>
       </c>
       <c r="Q15" t="n">
-        <v>301.9817606876396</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>472.0729312464055</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32786,10 +32786,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>463.4789474089069</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,7 +32798,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>302.5540177178169</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>624.1318526922785</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,19 +33497,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>630.8026878560996</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33734,22 +33734,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>207.939011051685</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,22 +33971,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>518.0009690113193</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,19 +34217,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>422.3057151140782</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34445,10 +34445,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,7 +34457,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>518.0009690113193</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572286</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900731</v>
+        <v>63.70847814900742</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573789</v>
+        <v>146.733522557379</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252603</v>
+        <v>219.3104167252605</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518418</v>
+        <v>276.0144259518421</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318123</v>
+        <v>285.1410404318125</v>
       </c>
       <c r="O5" t="n">
-        <v>255.780637975792</v>
+        <v>255.7806379757922</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010076</v>
+        <v>183.4533610010078</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243896</v>
+        <v>89.10649401243913</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959587</v>
+        <v>18.93640691959592</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710209</v>
+        <v>111.309602971021</v>
       </c>
       <c r="L6" t="n">
-        <v>205.0696333191536</v>
+        <v>383.6877278154324</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654004</v>
+        <v>248.8118794654005</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355786</v>
+        <v>269.9513763355789</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904232</v>
+        <v>224.5085324904234</v>
       </c>
       <c r="P6" t="n">
-        <v>383.687727815432</v>
+        <v>160.6595406047358</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793445</v>
+        <v>101.3833102023523</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,22 +35097,22 @@
         <v>128.0174317142348</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148611</v>
+        <v>219.9055454148612</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391683</v>
+        <v>242.3536283391684</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814823</v>
+        <v>242.0805122814824</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809998</v>
+        <v>207.4224586809999</v>
       </c>
       <c r="P7" t="n">
         <v>153.7274818609596</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491153</v>
+        <v>22.15508137491159</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>546.4575832202792</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937053</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.702485752532</v>
+        <v>394.7024857525319</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844783</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681832</v>
+        <v>618.3092105681831</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214256</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739936</v>
+        <v>584.2299222739935</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067662</v>
+        <v>463.7772262067661</v>
       </c>
       <c r="Q11" t="n">
         <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553074</v>
+        <v>88.01360235553068</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949006</v>
+        <v>422.9263036949005</v>
       </c>
       <c r="M12" t="n">
         <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507171</v>
+        <v>541.221524950717</v>
       </c>
       <c r="O12" t="n">
-        <v>82.52070309383863</v>
+        <v>347.3775291827649</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240141</v>
       </c>
       <c r="Q12" t="n">
         <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655342</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186276</v>
+        <v>59.91672319186273</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388469</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
         <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141999</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776311</v>
+        <v>95.37638356776309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>350.1679638549188</v>
       </c>
       <c r="Q15" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>340.7312191630721</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36291,10 +36291,10 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066236</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36434,10 +36434,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>325.6375084345479</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>171.2123056344836</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>481.5356082478341</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>488.6686539340813</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37382,22 +37382,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>81.10138438501833</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>386.659256927986</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>279.7094706696337</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38093,10 +38093,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>386.659256927986</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
